--- a/biology/Botanique/Grand_pétasite/Grand_pétasite.xlsx
+++ b/biology/Botanique/Grand_pétasite/Grand_pétasite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petasites hybridus
 Le Grand pétasite, ou Pétasite hybride, plus rarement appelée Chapelière ou Grand pas d'âne (Petasites hybridus, anciennement Petasitus officinalis), est une espèce de plante à fleurs de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Phytonymie et nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Petasites vient du grec petasos « chapeau à large bord », allusion à la largeur que peuvent atteindre les feuilles. Le nom vernaculaire de « Chapelière » ou « Chapeau du diable » fait également référence à cette caractéristique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Petasites vient du grec petasos « chapeau à large bord », allusion à la largeur que peuvent atteindre les feuilles. Le nom vernaculaire de « Chapelière » ou « Chapeau du diable » fait également référence à cette caractéristique.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée vivace à rhizome. Les feuilles apparaissent après la floraison printanière. Elles ont un limbe arrondi ; elles sont molles et veloutées et dépassent 50 cm de diamètre.
 			Planche botanique de 1891.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce pionnière, plutôt héliophile, elle colonise les îlots et les pieds de berge, se développant dans des sols riches et humides souvent ombragés. Souvent à proximité des cours d'eau (mégaphorbiaie alluviale).
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Commun dans l'Est de la France.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand_p%C3%A9tasite</t>
+          <t>Grand_pétasite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,10 +665,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médicinal
-L'extrait de racine a une certaine efficacité dans le traitement de fond des migraines[2]. L'infusion de feuilles et de fleurs séchées soulage les bronches irritées ; les cataplasmes de feuilles fraîches calment certaines douleurs articulaires, facilitent la cicatrisation des plaies ; la racine est douée de propriétés antispasmodiques[3].
-Ornemental
-La plante est utilisée en composition paysagère comme plante ornementale.
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait de racine a une certaine efficacité dans le traitement de fond des migraines. L'infusion de feuilles et de fleurs séchées soulage les bronches irritées ; les cataplasmes de feuilles fraîches calment certaines douleurs articulaires, facilitent la cicatrisation des plaies ; la racine est douée de propriétés antispasmodiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_pétasite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_p%C3%A9tasite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ornemental</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est utilisée en composition paysagère comme plante ornementale.
 La plante est représentée dans l'œuvre Vallon dans les montagnes du Doubs (au musée des Beaux-Arts de Dijon) peinte par Émile Isenbart vers 1893.
 </t>
         </is>
